--- a/Aumekubo/Old_files/hotels.xlsx
+++ b/Aumekubo/Old_files/hotels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4008" uniqueCount="1521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4008" uniqueCount="1518">
   <si>
     <t>hotel</t>
   </si>
@@ -2542,7 +2542,7 @@
     <t>Hudson Street</t>
   </si>
   <si>
-    <t>Dominick Street</t>
+    <t>Varick Street</t>
   </si>
   <si>
     <t>Furman Street</t>
@@ -2554,9 +2554,6 @@
     <t>Charlton Street</t>
   </si>
   <si>
-    <t>Varick Street</t>
-  </si>
-  <si>
     <t>Orchard Street</t>
   </si>
   <si>
@@ -2590,9 +2587,6 @@
     <t>Flatbush Avenue Extension</t>
   </si>
   <si>
-    <t>Adams Street</t>
-  </si>
-  <si>
     <t>4th Avenue</t>
   </si>
   <si>
@@ -3073,15 +3067,9 @@
     <t>Club Quarters Hotel,  World Trade Center</t>
   </si>
   <si>
-    <t>The Washington New York City</t>
-  </si>
-  <si>
     <t>60 Wall Street</t>
   </si>
   <si>
-    <t>Courtyard by Marriott New York Downtown Manhattan/World Trade Center Area</t>
-  </si>
-  <si>
     <t>50 Trinity Place</t>
   </si>
   <si>
@@ -3109,6 +3097,9 @@
     <t>1631 John F. Kennedy Boulevard</t>
   </si>
   <si>
+    <t>Gardens Suites Hotel by Affinia</t>
+  </si>
+  <si>
     <t>40-30 Crescent Street</t>
   </si>
   <si>
@@ -3313,7 +3304,7 @@
     <t>189 Bowery, New York, NY 10002, United States of America</t>
   </si>
   <si>
-    <t>Dominick Street, New York, NY 10005, United States of America</t>
+    <t>Varick Street, New York, NY 10005, United States of America</t>
   </si>
   <si>
     <t>88 Allen Street, New York, NY 10002, United States of America</t>
@@ -3388,7 +3379,7 @@
     <t>85 Flatbush Avenue Extension, New York, NY 11201, United States of America</t>
   </si>
   <si>
-    <t>Adams Street, New York, NY 11201, United States of America</t>
+    <t>Pearl Street, New York, NY 11201, United States of America</t>
   </si>
   <si>
     <t>134 4th Avenue, New York, NY 10003, United States of America</t>
@@ -4989,7 +4980,7 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5015,7 +5006,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5041,7 +5032,7 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5067,7 +5058,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5093,7 +5084,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5119,7 +5110,7 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5145,7 +5136,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5171,7 +5162,7 @@
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5197,7 +5188,7 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5223,7 +5214,7 @@
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5249,7 +5240,7 @@
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5275,7 +5266,7 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5298,10 +5289,10 @@
         <v>446</v>
       </c>
       <c r="G14" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="H14" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5327,7 +5318,7 @@
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5353,7 +5344,7 @@
         <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5379,7 +5370,7 @@
         <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5405,7 +5396,7 @@
         <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5431,7 +5422,7 @@
         <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5457,7 +5448,7 @@
         <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5480,10 +5471,10 @@
         <v>446</v>
       </c>
       <c r="G21" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H21" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5506,10 +5497,10 @@
         <v>446</v>
       </c>
       <c r="G22" t="s">
-        <v>1019</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5532,10 +5523,10 @@
         <v>446</v>
       </c>
       <c r="G23" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="H23" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5561,7 +5552,7 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5587,7 +5578,7 @@
         <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5613,7 +5604,7 @@
         <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5639,7 +5630,7 @@
         <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5665,7 +5656,7 @@
         <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5691,7 +5682,7 @@
         <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5717,7 +5708,7 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5740,10 +5731,10 @@
         <v>446</v>
       </c>
       <c r="G31" t="s">
-        <v>1021</v>
+        <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5766,10 +5757,10 @@
         <v>446</v>
       </c>
       <c r="G32" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="H32" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -5795,7 +5786,7 @@
         <v>36</v>
       </c>
       <c r="H33" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5821,7 +5812,7 @@
         <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5847,7 +5838,7 @@
         <v>38</v>
       </c>
       <c r="H35" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5873,7 +5864,7 @@
         <v>39</v>
       </c>
       <c r="H36" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5899,7 +5890,7 @@
         <v>40</v>
       </c>
       <c r="H37" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5925,7 +5916,7 @@
         <v>41</v>
       </c>
       <c r="H38" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5951,7 +5942,7 @@
         <v>42</v>
       </c>
       <c r="H39" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -5977,7 +5968,7 @@
         <v>43</v>
       </c>
       <c r="H40" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6003,7 +5994,7 @@
         <v>44</v>
       </c>
       <c r="H41" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6029,7 +6020,7 @@
         <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6055,7 +6046,7 @@
         <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6081,7 +6072,7 @@
         <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6107,7 +6098,7 @@
         <v>48</v>
       </c>
       <c r="H45" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6133,7 +6124,7 @@
         <v>49</v>
       </c>
       <c r="H46" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6159,7 +6150,7 @@
         <v>50</v>
       </c>
       <c r="H47" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6185,7 +6176,7 @@
         <v>51</v>
       </c>
       <c r="H48" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6211,7 +6202,7 @@
         <v>52</v>
       </c>
       <c r="H49" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -6234,10 +6225,10 @@
         <v>446</v>
       </c>
       <c r="G50" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="H50" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6263,7 +6254,7 @@
         <v>54</v>
       </c>
       <c r="H51" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -6289,7 +6280,7 @@
         <v>55</v>
       </c>
       <c r="H52" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -6315,7 +6306,7 @@
         <v>56</v>
       </c>
       <c r="H53" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -6341,7 +6332,7 @@
         <v>57</v>
       </c>
       <c r="H54" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -6367,7 +6358,7 @@
         <v>58</v>
       </c>
       <c r="H55" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -6393,7 +6384,7 @@
         <v>59</v>
       </c>
       <c r="H56" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -6419,7 +6410,7 @@
         <v>60</v>
       </c>
       <c r="H57" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -6445,7 +6436,7 @@
         <v>61</v>
       </c>
       <c r="H58" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -6471,7 +6462,7 @@
         <v>62</v>
       </c>
       <c r="H59" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6497,7 +6488,7 @@
         <v>63</v>
       </c>
       <c r="H60" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -6523,7 +6514,7 @@
         <v>64</v>
       </c>
       <c r="H61" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -6549,7 +6540,7 @@
         <v>65</v>
       </c>
       <c r="H62" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6575,7 +6566,7 @@
         <v>66</v>
       </c>
       <c r="H63" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6601,7 +6592,7 @@
         <v>67</v>
       </c>
       <c r="H64" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6624,10 +6615,10 @@
         <v>446</v>
       </c>
       <c r="G65" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="H65" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6653,7 +6644,7 @@
         <v>69</v>
       </c>
       <c r="H66" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6679,7 +6670,7 @@
         <v>70</v>
       </c>
       <c r="H67" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6705,7 +6696,7 @@
         <v>71</v>
       </c>
       <c r="H68" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6731,7 +6722,7 @@
         <v>72</v>
       </c>
       <c r="H69" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6757,7 +6748,7 @@
         <v>73</v>
       </c>
       <c r="H70" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6783,7 +6774,7 @@
         <v>74</v>
       </c>
       <c r="H71" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6809,7 +6800,7 @@
         <v>75</v>
       </c>
       <c r="H72" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -6835,7 +6826,7 @@
         <v>76</v>
       </c>
       <c r="H73" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -6861,7 +6852,7 @@
         <v>77</v>
       </c>
       <c r="H74" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -6887,7 +6878,7 @@
         <v>78</v>
       </c>
       <c r="H75" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -6910,10 +6901,10 @@
         <v>446</v>
       </c>
       <c r="G76" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="H76" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -6936,10 +6927,10 @@
         <v>446</v>
       </c>
       <c r="G77" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="H77" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -6965,7 +6956,7 @@
         <v>79</v>
       </c>
       <c r="H78" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -6991,7 +6982,7 @@
         <v>15</v>
       </c>
       <c r="H79" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7017,7 +7008,7 @@
         <v>80</v>
       </c>
       <c r="H80" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7034,7 +7025,7 @@
         <v>563</v>
       </c>
       <c r="E81" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F81" t="s">
         <v>446</v>
@@ -7043,7 +7034,7 @@
         <v>81</v>
       </c>
       <c r="H81" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7060,7 +7051,7 @@
         <v>564</v>
       </c>
       <c r="E82" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F82" t="s">
         <v>446</v>
@@ -7069,7 +7060,7 @@
         <v>82</v>
       </c>
       <c r="H82" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7086,7 +7077,7 @@
         <v>565</v>
       </c>
       <c r="E83" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F83" t="s">
         <v>446</v>
@@ -7095,7 +7086,7 @@
         <v>83</v>
       </c>
       <c r="H83" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7112,7 +7103,7 @@
         <v>566</v>
       </c>
       <c r="E84" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F84" t="s">
         <v>446</v>
@@ -7121,7 +7112,7 @@
         <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7138,7 +7129,7 @@
         <v>567</v>
       </c>
       <c r="E85" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F85" t="s">
         <v>446</v>
@@ -7147,7 +7138,7 @@
         <v>84</v>
       </c>
       <c r="H85" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7164,7 +7155,7 @@
         <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F86" t="s">
         <v>446</v>
@@ -7173,7 +7164,7 @@
         <v>85</v>
       </c>
       <c r="H86" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7199,7 +7190,7 @@
         <v>86</v>
       </c>
       <c r="H87" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7216,7 +7207,7 @@
         <v>569</v>
       </c>
       <c r="E88" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F88" t="s">
         <v>446</v>
@@ -7225,7 +7216,7 @@
         <v>87</v>
       </c>
       <c r="H88" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -7242,16 +7233,16 @@
         <v>516</v>
       </c>
       <c r="E89" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F89" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G89" t="s">
         <v>88</v>
       </c>
       <c r="H89" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -7268,7 +7259,7 @@
         <v>570</v>
       </c>
       <c r="E90" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F90" t="s">
         <v>446</v>
@@ -7277,7 +7268,7 @@
         <v>89</v>
       </c>
       <c r="H90" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -7294,7 +7285,7 @@
         <v>516</v>
       </c>
       <c r="E91" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F91" t="s">
         <v>446</v>
@@ -7303,7 +7294,7 @@
         <v>90</v>
       </c>
       <c r="H91" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -7320,16 +7311,16 @@
         <v>571</v>
       </c>
       <c r="E92" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F92" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G92" t="s">
         <v>91</v>
       </c>
       <c r="H92" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -7346,7 +7337,7 @@
         <v>559</v>
       </c>
       <c r="E93" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F93" t="s">
         <v>446</v>
@@ -7355,7 +7346,7 @@
         <v>92</v>
       </c>
       <c r="H93" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -7372,16 +7363,16 @@
         <v>572</v>
       </c>
       <c r="E94" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F94" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G94" t="s">
         <v>93</v>
       </c>
       <c r="H94" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -7398,7 +7389,7 @@
         <v>523</v>
       </c>
       <c r="E95" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F95" t="s">
         <v>446</v>
@@ -7407,7 +7398,7 @@
         <v>94</v>
       </c>
       <c r="H95" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -7424,7 +7415,7 @@
         <v>19</v>
       </c>
       <c r="E96" t="s">
-        <v>858</v>
+        <v>803</v>
       </c>
       <c r="F96" t="s">
         <v>446</v>
@@ -7433,7 +7424,7 @@
         <v>95</v>
       </c>
       <c r="H96" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -7450,7 +7441,7 @@
         <v>573</v>
       </c>
       <c r="E97" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F97" t="s">
         <v>446</v>
@@ -7459,7 +7450,7 @@
         <v>96</v>
       </c>
       <c r="H97" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -7476,7 +7467,7 @@
         <v>19</v>
       </c>
       <c r="E98" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F98" t="s">
         <v>446</v>
@@ -7485,7 +7476,7 @@
         <v>65</v>
       </c>
       <c r="H98" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -7502,7 +7493,7 @@
         <v>512</v>
       </c>
       <c r="E99" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F99" t="s">
         <v>446</v>
@@ -7511,7 +7502,7 @@
         <v>97</v>
       </c>
       <c r="H99" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -7528,7 +7519,7 @@
         <v>574</v>
       </c>
       <c r="E100" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F100" t="s">
         <v>446</v>
@@ -7537,7 +7528,7 @@
         <v>98</v>
       </c>
       <c r="H100" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -7554,7 +7545,7 @@
         <v>575</v>
       </c>
       <c r="E101" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F101" t="s">
         <v>446</v>
@@ -7563,7 +7554,7 @@
         <v>99</v>
       </c>
       <c r="H101" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -7580,16 +7571,16 @@
         <v>19</v>
       </c>
       <c r="E102" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F102" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G102" t="s">
         <v>100</v>
       </c>
       <c r="H102" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -7606,16 +7597,16 @@
         <v>576</v>
       </c>
       <c r="E103" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F103" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G103" t="s">
         <v>101</v>
       </c>
       <c r="H103" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -7632,16 +7623,16 @@
         <v>577</v>
       </c>
       <c r="E104" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F104" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G104" t="s">
         <v>102</v>
       </c>
       <c r="H104" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -7658,7 +7649,7 @@
         <v>578</v>
       </c>
       <c r="E105" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F105" t="s">
         <v>446</v>
@@ -7667,7 +7658,7 @@
         <v>103</v>
       </c>
       <c r="H105" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -7684,7 +7675,7 @@
         <v>579</v>
       </c>
       <c r="E106" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F106" t="s">
         <v>446</v>
@@ -7693,7 +7684,7 @@
         <v>104</v>
       </c>
       <c r="H106" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -7710,7 +7701,7 @@
         <v>580</v>
       </c>
       <c r="E107" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F107" t="s">
         <v>446</v>
@@ -7719,7 +7710,7 @@
         <v>105</v>
       </c>
       <c r="H107" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -7736,16 +7727,16 @@
         <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F108" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G108" t="s">
         <v>106</v>
       </c>
       <c r="H108" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -7762,7 +7753,7 @@
         <v>518</v>
       </c>
       <c r="E109" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F109" t="s">
         <v>446</v>
@@ -7771,7 +7762,7 @@
         <v>107</v>
       </c>
       <c r="H109" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -7788,16 +7779,16 @@
         <v>581</v>
       </c>
       <c r="E110" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F110" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G110" t="s">
         <v>108</v>
       </c>
       <c r="H110" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -7814,7 +7805,7 @@
         <v>582</v>
       </c>
       <c r="E111" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F111" t="s">
         <v>446</v>
@@ -7823,7 +7814,7 @@
         <v>109</v>
       </c>
       <c r="H111" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -7840,7 +7831,7 @@
         <v>583</v>
       </c>
       <c r="E112" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F112" t="s">
         <v>446</v>
@@ -7849,7 +7840,7 @@
         <v>33</v>
       </c>
       <c r="H112" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -7866,7 +7857,7 @@
         <v>584</v>
       </c>
       <c r="E113" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F113" t="s">
         <v>446</v>
@@ -7875,7 +7866,7 @@
         <v>110</v>
       </c>
       <c r="H113" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -7892,7 +7883,7 @@
         <v>523</v>
       </c>
       <c r="E114" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F114" t="s">
         <v>446</v>
@@ -7901,7 +7892,7 @@
         <v>111</v>
       </c>
       <c r="H114" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -7918,7 +7909,7 @@
         <v>585</v>
       </c>
       <c r="E115" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F115" t="s">
         <v>446</v>
@@ -7927,7 +7918,7 @@
         <v>112</v>
       </c>
       <c r="H115" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -7944,7 +7935,7 @@
         <v>586</v>
       </c>
       <c r="E116" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F116" t="s">
         <v>446</v>
@@ -7953,7 +7944,7 @@
         <v>113</v>
       </c>
       <c r="H116" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -7970,7 +7961,7 @@
         <v>587</v>
       </c>
       <c r="E117" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F117" t="s">
         <v>446</v>
@@ -7979,7 +7970,7 @@
         <v>114</v>
       </c>
       <c r="H117" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -7996,7 +7987,7 @@
         <v>588</v>
       </c>
       <c r="E118" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F118" t="s">
         <v>446</v>
@@ -8005,7 +7996,7 @@
         <v>115</v>
       </c>
       <c r="H118" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8022,7 +8013,7 @@
         <v>19</v>
       </c>
       <c r="E119" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F119" t="s">
         <v>446</v>
@@ -8031,7 +8022,7 @@
         <v>116</v>
       </c>
       <c r="H119" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8057,7 +8048,7 @@
         <v>117</v>
       </c>
       <c r="H120" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8074,7 +8065,7 @@
         <v>508</v>
       </c>
       <c r="E121" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F121" t="s">
         <v>446</v>
@@ -8083,7 +8074,7 @@
         <v>118</v>
       </c>
       <c r="H121" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8100,7 +8091,7 @@
         <v>590</v>
       </c>
       <c r="E122" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F122" t="s">
         <v>446</v>
@@ -8109,7 +8100,7 @@
         <v>119</v>
       </c>
       <c r="H122" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8126,7 +8117,7 @@
         <v>591</v>
       </c>
       <c r="E123" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F123" t="s">
         <v>446</v>
@@ -8135,7 +8126,7 @@
         <v>120</v>
       </c>
       <c r="H123" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8152,7 +8143,7 @@
         <v>592</v>
       </c>
       <c r="E124" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F124" t="s">
         <v>446</v>
@@ -8161,7 +8152,7 @@
         <v>121</v>
       </c>
       <c r="H124" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8178,7 +8169,7 @@
         <v>516</v>
       </c>
       <c r="E125" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F125" t="s">
         <v>446</v>
@@ -8187,7 +8178,7 @@
         <v>122</v>
       </c>
       <c r="H125" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8204,7 +8195,7 @@
         <v>593</v>
       </c>
       <c r="E126" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F126" t="s">
         <v>446</v>
@@ -8213,7 +8204,7 @@
         <v>123</v>
       </c>
       <c r="H126" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -8233,13 +8224,13 @@
         <v>841</v>
       </c>
       <c r="F127" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G127" t="s">
         <v>124</v>
       </c>
       <c r="H127" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -8256,7 +8247,7 @@
         <v>594</v>
       </c>
       <c r="E128" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F128" t="s">
         <v>446</v>
@@ -8265,7 +8256,7 @@
         <v>125</v>
       </c>
       <c r="H128" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -8282,7 +8273,7 @@
         <v>518</v>
       </c>
       <c r="E129" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F129" t="s">
         <v>446</v>
@@ -8291,7 +8282,7 @@
         <v>126</v>
       </c>
       <c r="H129" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -8308,16 +8299,16 @@
         <v>595</v>
       </c>
       <c r="E130" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F130" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G130" t="s">
         <v>127</v>
       </c>
       <c r="H130" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -8334,16 +8325,16 @@
         <v>19</v>
       </c>
       <c r="E131" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F131" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G131" t="s">
         <v>128</v>
       </c>
       <c r="H131" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -8360,7 +8351,7 @@
         <v>596</v>
       </c>
       <c r="E132" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F132" t="s">
         <v>446</v>
@@ -8369,7 +8360,7 @@
         <v>129</v>
       </c>
       <c r="H132" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -8386,7 +8377,7 @@
         <v>584</v>
       </c>
       <c r="E133" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F133" t="s">
         <v>446</v>
@@ -8395,7 +8386,7 @@
         <v>130</v>
       </c>
       <c r="H133" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -8412,16 +8403,16 @@
         <v>19</v>
       </c>
       <c r="E134" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F134" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G134" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H134" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -8438,7 +8429,7 @@
         <v>571</v>
       </c>
       <c r="E135" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F135" t="s">
         <v>446</v>
@@ -8447,7 +8438,7 @@
         <v>131</v>
       </c>
       <c r="H135" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -8464,7 +8455,7 @@
         <v>597</v>
       </c>
       <c r="E136" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F136" t="s">
         <v>446</v>
@@ -8473,7 +8464,7 @@
         <v>132</v>
       </c>
       <c r="H136" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -8490,7 +8481,7 @@
         <v>598</v>
       </c>
       <c r="E137" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F137" t="s">
         <v>446</v>
@@ -8499,7 +8490,7 @@
         <v>133</v>
       </c>
       <c r="H137" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -8516,7 +8507,7 @@
         <v>599</v>
       </c>
       <c r="E138" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F138" t="s">
         <v>446</v>
@@ -8525,7 +8516,7 @@
         <v>134</v>
       </c>
       <c r="H138" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -8542,7 +8533,7 @@
         <v>600</v>
       </c>
       <c r="E139" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F139" t="s">
         <v>446</v>
@@ -8551,7 +8542,7 @@
         <v>135</v>
       </c>
       <c r="H139" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -8568,7 +8559,7 @@
         <v>582</v>
       </c>
       <c r="E140" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F140" t="s">
         <v>446</v>
@@ -8577,7 +8568,7 @@
         <v>136</v>
       </c>
       <c r="H140" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -8594,7 +8585,7 @@
         <v>594</v>
       </c>
       <c r="E141" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F141" t="s">
         <v>446</v>
@@ -8603,7 +8594,7 @@
         <v>137</v>
       </c>
       <c r="H141" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -8620,16 +8611,16 @@
         <v>19</v>
       </c>
       <c r="E142" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F142" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G142" t="s">
         <v>138</v>
       </c>
       <c r="H142" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -8646,7 +8637,7 @@
         <v>601</v>
       </c>
       <c r="E143" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F143" t="s">
         <v>446</v>
@@ -8655,7 +8646,7 @@
         <v>65</v>
       </c>
       <c r="H143" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -8672,7 +8663,7 @@
         <v>602</v>
       </c>
       <c r="E144" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F144" t="s">
         <v>446</v>
@@ -8681,7 +8672,7 @@
         <v>139</v>
       </c>
       <c r="H144" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -8698,7 +8689,7 @@
         <v>603</v>
       </c>
       <c r="E145" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F145" t="s">
         <v>446</v>
@@ -8707,7 +8698,7 @@
         <v>140</v>
       </c>
       <c r="H145" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -8724,7 +8715,7 @@
         <v>604</v>
       </c>
       <c r="E146" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F146" t="s">
         <v>446</v>
@@ -8733,7 +8724,7 @@
         <v>141</v>
       </c>
       <c r="H146" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -8750,7 +8741,7 @@
         <v>605</v>
       </c>
       <c r="E147" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F147" t="s">
         <v>446</v>
@@ -8759,7 +8750,7 @@
         <v>142</v>
       </c>
       <c r="H147" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -8776,7 +8767,7 @@
         <v>606</v>
       </c>
       <c r="E148" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F148" t="s">
         <v>446</v>
@@ -8785,7 +8776,7 @@
         <v>143</v>
       </c>
       <c r="H148" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -8802,7 +8793,7 @@
         <v>580</v>
       </c>
       <c r="E149" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F149" t="s">
         <v>446</v>
@@ -8811,7 +8802,7 @@
         <v>144</v>
       </c>
       <c r="H149" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -8828,7 +8819,7 @@
         <v>607</v>
       </c>
       <c r="E150" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F150" t="s">
         <v>446</v>
@@ -8837,7 +8828,7 @@
         <v>145</v>
       </c>
       <c r="H150" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -8854,7 +8845,7 @@
         <v>608</v>
       </c>
       <c r="E151" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F151" t="s">
         <v>446</v>
@@ -8863,7 +8854,7 @@
         <v>146</v>
       </c>
       <c r="H151" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -8880,7 +8871,7 @@
         <v>19</v>
       </c>
       <c r="E152" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F152" t="s">
         <v>446</v>
@@ -8889,7 +8880,7 @@
         <v>147</v>
       </c>
       <c r="H152" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -8906,7 +8897,7 @@
         <v>609</v>
       </c>
       <c r="E153" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F153" t="s">
         <v>446</v>
@@ -8915,7 +8906,7 @@
         <v>148</v>
       </c>
       <c r="H153" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -8932,7 +8923,7 @@
         <v>536</v>
       </c>
       <c r="E154" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F154" t="s">
         <v>446</v>
@@ -8941,7 +8932,7 @@
         <v>149</v>
       </c>
       <c r="H154" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -8958,7 +8949,7 @@
         <v>610</v>
       </c>
       <c r="E155" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F155" t="s">
         <v>446</v>
@@ -8967,7 +8958,7 @@
         <v>150</v>
       </c>
       <c r="H155" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -8984,16 +8975,16 @@
         <v>611</v>
       </c>
       <c r="E156" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F156" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G156" t="s">
         <v>151</v>
       </c>
       <c r="H156" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9010,7 +9001,7 @@
         <v>566</v>
       </c>
       <c r="E157" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F157" t="s">
         <v>446</v>
@@ -9019,7 +9010,7 @@
         <v>152</v>
       </c>
       <c r="H157" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9036,7 +9027,7 @@
         <v>612</v>
       </c>
       <c r="E158" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F158" t="s">
         <v>446</v>
@@ -9045,7 +9036,7 @@
         <v>153</v>
       </c>
       <c r="H158" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9062,7 +9053,7 @@
         <v>613</v>
       </c>
       <c r="E159" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F159" t="s">
         <v>446</v>
@@ -9071,7 +9062,7 @@
         <v>154</v>
       </c>
       <c r="H159" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9088,7 +9079,7 @@
         <v>534</v>
       </c>
       <c r="E160" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F160" t="s">
         <v>446</v>
@@ -9097,7 +9088,7 @@
         <v>155</v>
       </c>
       <c r="H160" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9114,7 +9105,7 @@
         <v>614</v>
       </c>
       <c r="E161" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F161" t="s">
         <v>446</v>
@@ -9123,7 +9114,7 @@
         <v>156</v>
       </c>
       <c r="H161" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9140,7 +9131,7 @@
         <v>615</v>
       </c>
       <c r="E162" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F162" t="s">
         <v>446</v>
@@ -9149,7 +9140,7 @@
         <v>157</v>
       </c>
       <c r="H162" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9166,7 +9157,7 @@
         <v>616</v>
       </c>
       <c r="E163" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F163" t="s">
         <v>446</v>
@@ -9175,7 +9166,7 @@
         <v>158</v>
       </c>
       <c r="H163" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9192,7 +9183,7 @@
         <v>617</v>
       </c>
       <c r="E164" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F164" t="s">
         <v>446</v>
@@ -9201,7 +9192,7 @@
         <v>28</v>
       </c>
       <c r="H164" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9218,7 +9209,7 @@
         <v>569</v>
       </c>
       <c r="E165" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F165" t="s">
         <v>446</v>
@@ -9227,7 +9218,7 @@
         <v>159</v>
       </c>
       <c r="H165" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -9244,7 +9235,7 @@
         <v>618</v>
       </c>
       <c r="E166" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F166" t="s">
         <v>446</v>
@@ -9253,7 +9244,7 @@
         <v>160</v>
       </c>
       <c r="H166" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -9270,7 +9261,7 @@
         <v>619</v>
       </c>
       <c r="E167" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F167" t="s">
         <v>446</v>
@@ -9279,7 +9270,7 @@
         <v>161</v>
       </c>
       <c r="H167" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -9296,16 +9287,16 @@
         <v>620</v>
       </c>
       <c r="E168" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F168" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G168" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="H168" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -9331,7 +9322,7 @@
         <v>162</v>
       </c>
       <c r="H169" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -9348,7 +9339,7 @@
         <v>622</v>
       </c>
       <c r="E170" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F170" t="s">
         <v>446</v>
@@ -9357,7 +9348,7 @@
         <v>163</v>
       </c>
       <c r="H170" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -9374,7 +9365,7 @@
         <v>504</v>
       </c>
       <c r="E171" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F171" t="s">
         <v>446</v>
@@ -9383,7 +9374,7 @@
         <v>164</v>
       </c>
       <c r="H171" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -9400,7 +9391,7 @@
         <v>623</v>
       </c>
       <c r="E172" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F172" t="s">
         <v>446</v>
@@ -9409,7 +9400,7 @@
         <v>33</v>
       </c>
       <c r="H172" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -9426,7 +9417,7 @@
         <v>475</v>
       </c>
       <c r="E173" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F173" t="s">
         <v>446</v>
@@ -9435,7 +9426,7 @@
         <v>123</v>
       </c>
       <c r="H173" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -9452,7 +9443,7 @@
         <v>624</v>
       </c>
       <c r="E174" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F174" t="s">
         <v>446</v>
@@ -9461,7 +9452,7 @@
         <v>165</v>
       </c>
       <c r="H174" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -9478,7 +9469,7 @@
         <v>625</v>
       </c>
       <c r="E175" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F175" t="s">
         <v>446</v>
@@ -9487,7 +9478,7 @@
         <v>166</v>
       </c>
       <c r="H175" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -9504,7 +9495,7 @@
         <v>626</v>
       </c>
       <c r="E176" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F176" t="s">
         <v>446</v>
@@ -9513,7 +9504,7 @@
         <v>167</v>
       </c>
       <c r="H176" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -9530,7 +9521,7 @@
         <v>552</v>
       </c>
       <c r="E177" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F177" t="s">
         <v>446</v>
@@ -9539,7 +9530,7 @@
         <v>168</v>
       </c>
       <c r="H177" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -9556,7 +9547,7 @@
         <v>627</v>
       </c>
       <c r="E178" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F178" t="s">
         <v>446</v>
@@ -9565,7 +9556,7 @@
         <v>169</v>
       </c>
       <c r="H178" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -9582,7 +9573,7 @@
         <v>628</v>
       </c>
       <c r="E179" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F179" t="s">
         <v>446</v>
@@ -9591,7 +9582,7 @@
         <v>100</v>
       </c>
       <c r="H179" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -9608,7 +9599,7 @@
         <v>629</v>
       </c>
       <c r="E180" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F180" t="s">
         <v>446</v>
@@ -9617,7 +9608,7 @@
         <v>170</v>
       </c>
       <c r="H180" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -9643,7 +9634,7 @@
         <v>171</v>
       </c>
       <c r="H181" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -9660,7 +9651,7 @@
         <v>522</v>
       </c>
       <c r="E182" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F182" t="s">
         <v>446</v>
@@ -9669,7 +9660,7 @@
         <v>172</v>
       </c>
       <c r="H182" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -9686,7 +9677,7 @@
         <v>19</v>
       </c>
       <c r="E183" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F183" t="s">
         <v>446</v>
@@ -9695,7 +9686,7 @@
         <v>28</v>
       </c>
       <c r="H183" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -9712,16 +9703,16 @@
         <v>19</v>
       </c>
       <c r="E184" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F184" t="s">
         <v>446</v>
       </c>
       <c r="G184" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H184" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -9738,7 +9729,7 @@
         <v>631</v>
       </c>
       <c r="E185" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F185" t="s">
         <v>446</v>
@@ -9747,7 +9738,7 @@
         <v>173</v>
       </c>
       <c r="H185" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -9764,7 +9755,7 @@
         <v>632</v>
       </c>
       <c r="E186" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F186" t="s">
         <v>446</v>
@@ -9773,7 +9764,7 @@
         <v>174</v>
       </c>
       <c r="H186" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -9790,7 +9781,7 @@
         <v>633</v>
       </c>
       <c r="E187" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F187" t="s">
         <v>446</v>
@@ -9799,7 +9790,7 @@
         <v>175</v>
       </c>
       <c r="H187" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -9816,7 +9807,7 @@
         <v>599</v>
       </c>
       <c r="E188" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F188" t="s">
         <v>446</v>
@@ -9825,7 +9816,7 @@
         <v>176</v>
       </c>
       <c r="H188" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -9842,16 +9833,16 @@
         <v>522</v>
       </c>
       <c r="E189" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F189" t="s">
         <v>446</v>
       </c>
       <c r="G189" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="H189" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -9868,7 +9859,7 @@
         <v>616</v>
       </c>
       <c r="E190" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F190" t="s">
         <v>446</v>
@@ -9877,7 +9868,7 @@
         <v>177</v>
       </c>
       <c r="H190" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -9894,7 +9885,7 @@
         <v>554</v>
       </c>
       <c r="E191" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F191" t="s">
         <v>446</v>
@@ -9903,7 +9894,7 @@
         <v>178</v>
       </c>
       <c r="H191" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -9920,7 +9911,7 @@
         <v>19</v>
       </c>
       <c r="E192" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F192" t="s">
         <v>446</v>
@@ -9929,7 +9920,7 @@
         <v>179</v>
       </c>
       <c r="H192" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -9946,7 +9937,7 @@
         <v>519</v>
       </c>
       <c r="E193" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F193" t="s">
         <v>446</v>
@@ -9955,7 +9946,7 @@
         <v>180</v>
       </c>
       <c r="H193" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -9972,7 +9963,7 @@
         <v>634</v>
       </c>
       <c r="E194" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F194" t="s">
         <v>446</v>
@@ -9981,7 +9972,7 @@
         <v>181</v>
       </c>
       <c r="H194" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -9998,7 +9989,7 @@
         <v>567</v>
       </c>
       <c r="E195" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F195" t="s">
         <v>446</v>
@@ -10007,7 +9998,7 @@
         <v>182</v>
       </c>
       <c r="H195" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10024,7 +10015,7 @@
         <v>635</v>
       </c>
       <c r="E196" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F196" t="s">
         <v>446</v>
@@ -10033,7 +10024,7 @@
         <v>183</v>
       </c>
       <c r="H196" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10050,7 +10041,7 @@
         <v>617</v>
       </c>
       <c r="E197" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F197" t="s">
         <v>446</v>
@@ -10059,7 +10050,7 @@
         <v>65</v>
       </c>
       <c r="H197" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10076,7 +10067,7 @@
         <v>636</v>
       </c>
       <c r="E198" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F198" t="s">
         <v>446</v>
@@ -10085,7 +10076,7 @@
         <v>184</v>
       </c>
       <c r="H198" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10102,7 +10093,7 @@
         <v>637</v>
       </c>
       <c r="E199" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F199" t="s">
         <v>446</v>
@@ -10111,7 +10102,7 @@
         <v>185</v>
       </c>
       <c r="H199" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10128,7 +10119,7 @@
         <v>552</v>
       </c>
       <c r="E200" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F200" t="s">
         <v>446</v>
@@ -10137,7 +10128,7 @@
         <v>186</v>
       </c>
       <c r="H200" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10154,7 +10145,7 @@
         <v>638</v>
       </c>
       <c r="E201" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F201" t="s">
         <v>446</v>
@@ -10163,7 +10154,7 @@
         <v>187</v>
       </c>
       <c r="H201" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10180,7 +10171,7 @@
         <v>639</v>
       </c>
       <c r="E202" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F202" t="s">
         <v>446</v>
@@ -10189,7 +10180,7 @@
         <v>188</v>
       </c>
       <c r="H202" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10206,7 +10197,7 @@
         <v>510</v>
       </c>
       <c r="E203" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F203" t="s">
         <v>446</v>
@@ -10215,7 +10206,7 @@
         <v>189</v>
       </c>
       <c r="H203" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -10232,7 +10223,7 @@
         <v>637</v>
       </c>
       <c r="E204" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F204" t="s">
         <v>446</v>
@@ -10241,7 +10232,7 @@
         <v>190</v>
       </c>
       <c r="H204" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -10258,7 +10249,7 @@
         <v>629</v>
       </c>
       <c r="E205" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F205" t="s">
         <v>446</v>
@@ -10267,7 +10258,7 @@
         <v>191</v>
       </c>
       <c r="H205" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -10284,7 +10275,7 @@
         <v>640</v>
       </c>
       <c r="E206" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F206" t="s">
         <v>446</v>
@@ -10293,7 +10284,7 @@
         <v>192</v>
       </c>
       <c r="H206" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -10310,7 +10301,7 @@
         <v>581</v>
       </c>
       <c r="E207" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F207" t="s">
         <v>446</v>
@@ -10319,7 +10310,7 @@
         <v>193</v>
       </c>
       <c r="H207" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -10336,7 +10327,7 @@
         <v>641</v>
       </c>
       <c r="E208" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F208" t="s">
         <v>446</v>
@@ -10345,7 +10336,7 @@
         <v>194</v>
       </c>
       <c r="H208" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -10362,7 +10353,7 @@
         <v>605</v>
       </c>
       <c r="E209" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F209" t="s">
         <v>446</v>
@@ -10371,7 +10362,7 @@
         <v>195</v>
       </c>
       <c r="H209" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -10388,7 +10379,7 @@
         <v>642</v>
       </c>
       <c r="E210" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F210" t="s">
         <v>446</v>
@@ -10397,7 +10388,7 @@
         <v>196</v>
       </c>
       <c r="H210" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -10414,7 +10405,7 @@
         <v>643</v>
       </c>
       <c r="E211" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F211" t="s">
         <v>446</v>
@@ -10423,7 +10414,7 @@
         <v>197</v>
       </c>
       <c r="H211" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -10440,7 +10431,7 @@
         <v>505</v>
       </c>
       <c r="E212" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F212" t="s">
         <v>446</v>
@@ -10449,7 +10440,7 @@
         <v>198</v>
       </c>
       <c r="H212" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -10466,7 +10457,7 @@
         <v>644</v>
       </c>
       <c r="E213" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F213" t="s">
         <v>446</v>
@@ -10475,7 +10466,7 @@
         <v>199</v>
       </c>
       <c r="H213" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -10492,7 +10483,7 @@
         <v>645</v>
       </c>
       <c r="E214" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F214" t="s">
         <v>446</v>
@@ -10501,7 +10492,7 @@
         <v>200</v>
       </c>
       <c r="H214" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -10518,7 +10509,7 @@
         <v>505</v>
       </c>
       <c r="E215" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F215" t="s">
         <v>446</v>
@@ -10527,7 +10518,7 @@
         <v>201</v>
       </c>
       <c r="H215" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -10544,7 +10535,7 @@
         <v>598</v>
       </c>
       <c r="E216" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F216" t="s">
         <v>446</v>
@@ -10553,7 +10544,7 @@
         <v>202</v>
       </c>
       <c r="H216" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -10570,7 +10561,7 @@
         <v>566</v>
       </c>
       <c r="E217" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F217" t="s">
         <v>446</v>
@@ -10579,7 +10570,7 @@
         <v>203</v>
       </c>
       <c r="H217" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -10596,7 +10587,7 @@
         <v>646</v>
       </c>
       <c r="E218" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F218" t="s">
         <v>446</v>
@@ -10605,7 +10596,7 @@
         <v>204</v>
       </c>
       <c r="H218" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -10622,7 +10613,7 @@
         <v>606</v>
       </c>
       <c r="E219" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F219" t="s">
         <v>446</v>
@@ -10631,7 +10622,7 @@
         <v>205</v>
       </c>
       <c r="H219" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -10648,7 +10639,7 @@
         <v>647</v>
       </c>
       <c r="E220" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F220" t="s">
         <v>446</v>
@@ -10657,7 +10648,7 @@
         <v>206</v>
       </c>
       <c r="H220" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -10674,7 +10665,7 @@
         <v>648</v>
       </c>
       <c r="E221" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F221" t="s">
         <v>446</v>
@@ -10683,7 +10674,7 @@
         <v>207</v>
       </c>
       <c r="H221" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -10700,7 +10691,7 @@
         <v>649</v>
       </c>
       <c r="E222" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F222" t="s">
         <v>446</v>
@@ -10709,7 +10700,7 @@
         <v>33</v>
       </c>
       <c r="H222" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -10726,7 +10717,7 @@
         <v>650</v>
       </c>
       <c r="E223" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F223" t="s">
         <v>446</v>
@@ -10735,7 +10726,7 @@
         <v>208</v>
       </c>
       <c r="H223" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -10752,7 +10743,7 @@
         <v>651</v>
       </c>
       <c r="E224" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F224" t="s">
         <v>446</v>
@@ -10761,7 +10752,7 @@
         <v>28</v>
       </c>
       <c r="H224" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -10778,7 +10769,7 @@
         <v>652</v>
       </c>
       <c r="E225" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F225" t="s">
         <v>446</v>
@@ -10787,7 +10778,7 @@
         <v>209</v>
       </c>
       <c r="H225" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -10804,7 +10795,7 @@
         <v>653</v>
       </c>
       <c r="E226" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F226" t="s">
         <v>446</v>
@@ -10813,7 +10804,7 @@
         <v>163</v>
       </c>
       <c r="H226" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -10830,7 +10821,7 @@
         <v>654</v>
       </c>
       <c r="E227" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F227" t="s">
         <v>446</v>
@@ -10839,7 +10830,7 @@
         <v>210</v>
       </c>
       <c r="H227" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -10856,7 +10847,7 @@
         <v>655</v>
       </c>
       <c r="E228" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F228" t="s">
         <v>446</v>
@@ -10865,7 +10856,7 @@
         <v>211</v>
       </c>
       <c r="H228" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -10882,7 +10873,7 @@
         <v>528</v>
       </c>
       <c r="E229" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F229" t="s">
         <v>446</v>
@@ -10891,7 +10882,7 @@
         <v>212</v>
       </c>
       <c r="H229" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -10908,7 +10899,7 @@
         <v>512</v>
       </c>
       <c r="E230" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F230" t="s">
         <v>446</v>
@@ -10917,7 +10908,7 @@
         <v>213</v>
       </c>
       <c r="H230" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -10934,7 +10925,7 @@
         <v>521</v>
       </c>
       <c r="E231" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F231" t="s">
         <v>446</v>
@@ -10943,7 +10934,7 @@
         <v>32</v>
       </c>
       <c r="H231" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -10960,7 +10951,7 @@
         <v>656</v>
       </c>
       <c r="E232" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F232" t="s">
         <v>446</v>
@@ -10969,7 +10960,7 @@
         <v>214</v>
       </c>
       <c r="H232" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -10986,7 +10977,7 @@
         <v>657</v>
       </c>
       <c r="E233" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F233" t="s">
         <v>446</v>
@@ -10995,7 +10986,7 @@
         <v>215</v>
       </c>
       <c r="H233" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11012,7 +11003,7 @@
         <v>658</v>
       </c>
       <c r="E234" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F234" t="s">
         <v>446</v>
@@ -11021,7 +11012,7 @@
         <v>216</v>
       </c>
       <c r="H234" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11038,7 +11029,7 @@
         <v>659</v>
       </c>
       <c r="E235" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F235" t="s">
         <v>446</v>
@@ -11047,7 +11038,7 @@
         <v>217</v>
       </c>
       <c r="H235" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11064,7 +11055,7 @@
         <v>521</v>
       </c>
       <c r="E236" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F236" t="s">
         <v>446</v>
@@ -11073,7 +11064,7 @@
         <v>218</v>
       </c>
       <c r="H236" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11090,7 +11081,7 @@
         <v>660</v>
       </c>
       <c r="E237" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F237" t="s">
         <v>446</v>
@@ -11099,7 +11090,7 @@
         <v>219</v>
       </c>
       <c r="H237" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11116,7 +11107,7 @@
         <v>642</v>
       </c>
       <c r="E238" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F238" t="s">
         <v>446</v>
@@ -11125,7 +11116,7 @@
         <v>220</v>
       </c>
       <c r="H238" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11142,7 +11133,7 @@
         <v>572</v>
       </c>
       <c r="E239" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F239" t="s">
         <v>446</v>
@@ -11151,7 +11142,7 @@
         <v>28</v>
       </c>
       <c r="H239" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11168,7 +11159,7 @@
         <v>661</v>
       </c>
       <c r="E240" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F240" t="s">
         <v>446</v>
@@ -11177,7 +11168,7 @@
         <v>221</v>
       </c>
       <c r="H240" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11194,7 +11185,7 @@
         <v>569</v>
       </c>
       <c r="E241" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F241" t="s">
         <v>446</v>
@@ -11203,7 +11194,7 @@
         <v>133</v>
       </c>
       <c r="H241" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11220,16 +11211,16 @@
         <v>19</v>
       </c>
       <c r="E242" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F242" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G242" t="s">
         <v>222</v>
       </c>
       <c r="H242" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -11246,7 +11237,7 @@
         <v>662</v>
       </c>
       <c r="E243" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F243" t="s">
         <v>446</v>
@@ -11255,7 +11246,7 @@
         <v>223</v>
       </c>
       <c r="H243" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -11272,7 +11263,7 @@
         <v>618</v>
       </c>
       <c r="E244" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F244" t="s">
         <v>446</v>
@@ -11281,7 +11272,7 @@
         <v>224</v>
       </c>
       <c r="H244" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -11298,7 +11289,7 @@
         <v>513</v>
       </c>
       <c r="E245" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F245" t="s">
         <v>446</v>
@@ -11307,7 +11298,7 @@
         <v>225</v>
       </c>
       <c r="H245" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -11324,7 +11315,7 @@
         <v>562</v>
       </c>
       <c r="E246" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F246" t="s">
         <v>446</v>
@@ -11333,7 +11324,7 @@
         <v>226</v>
       </c>
       <c r="H246" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -11350,7 +11341,7 @@
         <v>552</v>
       </c>
       <c r="E247" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F247" t="s">
         <v>446</v>
@@ -11359,7 +11350,7 @@
         <v>227</v>
       </c>
       <c r="H247" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -11376,7 +11367,7 @@
         <v>663</v>
       </c>
       <c r="E248" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F248" t="s">
         <v>446</v>
@@ -11385,7 +11376,7 @@
         <v>228</v>
       </c>
       <c r="H248" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -11402,7 +11393,7 @@
         <v>509</v>
       </c>
       <c r="E249" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F249" t="s">
         <v>446</v>
@@ -11411,7 +11402,7 @@
         <v>229</v>
       </c>
       <c r="H249" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -11428,7 +11419,7 @@
         <v>664</v>
       </c>
       <c r="E250" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F250" t="s">
         <v>446</v>
@@ -11437,7 +11428,7 @@
         <v>230</v>
       </c>
       <c r="H250" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -11454,7 +11445,7 @@
         <v>665</v>
       </c>
       <c r="E251" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F251" t="s">
         <v>446</v>
@@ -11463,7 +11454,7 @@
         <v>231</v>
       </c>
       <c r="H251" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -11480,7 +11471,7 @@
         <v>666</v>
       </c>
       <c r="E252" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F252" t="s">
         <v>446</v>
@@ -11489,7 +11480,7 @@
         <v>232</v>
       </c>
       <c r="H252" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -11506,7 +11497,7 @@
         <v>667</v>
       </c>
       <c r="E253" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F253" t="s">
         <v>446</v>
@@ -11515,7 +11506,7 @@
         <v>233</v>
       </c>
       <c r="H253" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -11532,7 +11523,7 @@
         <v>629</v>
       </c>
       <c r="E254" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F254" t="s">
         <v>446</v>
@@ -11541,7 +11532,7 @@
         <v>234</v>
       </c>
       <c r="H254" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -11558,7 +11549,7 @@
         <v>525</v>
       </c>
       <c r="E255" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F255" t="s">
         <v>446</v>
@@ -11567,7 +11558,7 @@
         <v>235</v>
       </c>
       <c r="H255" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -11584,7 +11575,7 @@
         <v>560</v>
       </c>
       <c r="E256" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F256" t="s">
         <v>446</v>
@@ -11593,7 +11584,7 @@
         <v>236</v>
       </c>
       <c r="H256" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -11610,7 +11601,7 @@
         <v>517</v>
       </c>
       <c r="E257" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F257" t="s">
         <v>446</v>
@@ -11619,7 +11610,7 @@
         <v>237</v>
       </c>
       <c r="H257" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -11636,7 +11627,7 @@
         <v>569</v>
       </c>
       <c r="E258" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F258" t="s">
         <v>446</v>
@@ -11645,7 +11636,7 @@
         <v>238</v>
       </c>
       <c r="H258" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -11662,7 +11653,7 @@
         <v>650</v>
       </c>
       <c r="E259" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F259" t="s">
         <v>446</v>
@@ -11671,7 +11662,7 @@
         <v>239</v>
       </c>
       <c r="H259" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -11688,7 +11679,7 @@
         <v>668</v>
       </c>
       <c r="E260" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F260" t="s">
         <v>446</v>
@@ -11697,7 +11688,7 @@
         <v>240</v>
       </c>
       <c r="H260" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -11714,7 +11705,7 @@
         <v>669</v>
       </c>
       <c r="E261" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F261" t="s">
         <v>446</v>
@@ -11723,7 +11714,7 @@
         <v>241</v>
       </c>
       <c r="H261" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -11740,7 +11731,7 @@
         <v>653</v>
       </c>
       <c r="E262" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F262" t="s">
         <v>446</v>
@@ -11749,7 +11740,7 @@
         <v>242</v>
       </c>
       <c r="H262" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -11766,7 +11757,7 @@
         <v>19</v>
       </c>
       <c r="E263" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F263" t="s">
         <v>446</v>
@@ -11775,7 +11766,7 @@
         <v>243</v>
       </c>
       <c r="H263" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -11792,7 +11783,7 @@
         <v>670</v>
       </c>
       <c r="E264" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F264" t="s">
         <v>446</v>
@@ -11801,7 +11792,7 @@
         <v>244</v>
       </c>
       <c r="H264" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -11818,7 +11809,7 @@
         <v>671</v>
       </c>
       <c r="E265" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F265" t="s">
         <v>446</v>
@@ -11827,7 +11818,7 @@
         <v>245</v>
       </c>
       <c r="H265" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -11844,7 +11835,7 @@
         <v>548</v>
       </c>
       <c r="E266" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F266" t="s">
         <v>446</v>
@@ -11853,7 +11844,7 @@
         <v>246</v>
       </c>
       <c r="H266" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -11870,7 +11861,7 @@
         <v>672</v>
       </c>
       <c r="E267" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F267" t="s">
         <v>446</v>
@@ -11879,7 +11870,7 @@
         <v>163</v>
       </c>
       <c r="H267" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -11896,7 +11887,7 @@
         <v>673</v>
       </c>
       <c r="E268" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F268" t="s">
         <v>446</v>
@@ -11905,7 +11896,7 @@
         <v>247</v>
       </c>
       <c r="H268" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -11922,7 +11913,7 @@
         <v>674</v>
       </c>
       <c r="E269" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F269" t="s">
         <v>446</v>
@@ -11931,7 +11922,7 @@
         <v>248</v>
       </c>
       <c r="H269" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -11948,7 +11939,7 @@
         <v>675</v>
       </c>
       <c r="E270" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F270" t="s">
         <v>446</v>
@@ -11957,7 +11948,7 @@
         <v>81</v>
       </c>
       <c r="H270" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -11983,7 +11974,7 @@
         <v>249</v>
       </c>
       <c r="H271" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12000,7 +11991,7 @@
         <v>677</v>
       </c>
       <c r="E272" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F272" t="s">
         <v>446</v>
@@ -12009,7 +12000,7 @@
         <v>250</v>
       </c>
       <c r="H272" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12026,7 +12017,7 @@
         <v>678</v>
       </c>
       <c r="E273" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F273" t="s">
         <v>446</v>
@@ -12035,7 +12026,7 @@
         <v>251</v>
       </c>
       <c r="H273" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12052,7 +12043,7 @@
         <v>679</v>
       </c>
       <c r="E274" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F274" t="s">
         <v>446</v>
@@ -12061,7 +12052,7 @@
         <v>252</v>
       </c>
       <c r="H274" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12078,7 +12069,7 @@
         <v>680</v>
       </c>
       <c r="E275" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F275" t="s">
         <v>446</v>
@@ -12087,7 +12078,7 @@
         <v>253</v>
       </c>
       <c r="H275" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12104,7 +12095,7 @@
         <v>629</v>
       </c>
       <c r="E276" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F276" t="s">
         <v>446</v>
@@ -12113,7 +12104,7 @@
         <v>254</v>
       </c>
       <c r="H276" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12130,7 +12121,7 @@
         <v>681</v>
       </c>
       <c r="E277" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F277" t="s">
         <v>446</v>
@@ -12139,7 +12130,7 @@
         <v>255</v>
       </c>
       <c r="H277" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12156,7 +12147,7 @@
         <v>682</v>
       </c>
       <c r="E278" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F278" t="s">
         <v>446</v>
@@ -12165,7 +12156,7 @@
         <v>256</v>
       </c>
       <c r="H278" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12182,7 +12173,7 @@
         <v>512</v>
       </c>
       <c r="E279" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F279" t="s">
         <v>446</v>
@@ -12191,7 +12182,7 @@
         <v>257</v>
       </c>
       <c r="H279" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12208,7 +12199,7 @@
         <v>683</v>
       </c>
       <c r="E280" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F280" t="s">
         <v>446</v>
@@ -12217,7 +12208,7 @@
         <v>13</v>
       </c>
       <c r="H280" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12234,7 +12225,7 @@
         <v>684</v>
       </c>
       <c r="E281" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F281" t="s">
         <v>446</v>
@@ -12243,7 +12234,7 @@
         <v>258</v>
       </c>
       <c r="H281" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -12260,7 +12251,7 @@
         <v>685</v>
       </c>
       <c r="E282" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F282" t="s">
         <v>446</v>
@@ -12269,7 +12260,7 @@
         <v>259</v>
       </c>
       <c r="H282" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -12286,7 +12277,7 @@
         <v>519</v>
       </c>
       <c r="E283" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F283" t="s">
         <v>446</v>
@@ -12295,7 +12286,7 @@
         <v>260</v>
       </c>
       <c r="H283" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -12312,7 +12303,7 @@
         <v>686</v>
       </c>
       <c r="E284" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F284" t="s">
         <v>446</v>
@@ -12321,7 +12312,7 @@
         <v>261</v>
       </c>
       <c r="H284" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -12338,7 +12329,7 @@
         <v>687</v>
       </c>
       <c r="E285" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F285" t="s">
         <v>446</v>
@@ -12347,7 +12338,7 @@
         <v>262</v>
       </c>
       <c r="H285" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -12364,7 +12355,7 @@
         <v>688</v>
       </c>
       <c r="E286" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F286" t="s">
         <v>446</v>
@@ -12373,7 +12364,7 @@
         <v>263</v>
       </c>
       <c r="H286" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -12390,7 +12381,7 @@
         <v>689</v>
       </c>
       <c r="E287" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F287" t="s">
         <v>446</v>
@@ -12399,7 +12390,7 @@
         <v>264</v>
       </c>
       <c r="H287" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -12416,7 +12407,7 @@
         <v>690</v>
       </c>
       <c r="E288" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F288" t="s">
         <v>446</v>
@@ -12425,7 +12416,7 @@
         <v>265</v>
       </c>
       <c r="H288" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -12442,7 +12433,7 @@
         <v>669</v>
       </c>
       <c r="E289" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F289" t="s">
         <v>446</v>
@@ -12451,7 +12442,7 @@
         <v>65</v>
       </c>
       <c r="H289" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -12468,7 +12459,7 @@
         <v>542</v>
       </c>
       <c r="E290" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F290" t="s">
         <v>446</v>
@@ -12477,7 +12468,7 @@
         <v>266</v>
       </c>
       <c r="H290" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -12494,7 +12485,7 @@
         <v>691</v>
       </c>
       <c r="E291" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F291" t="s">
         <v>446</v>
@@ -12503,7 +12494,7 @@
         <v>267</v>
       </c>
       <c r="H291" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -12520,7 +12511,7 @@
         <v>692</v>
       </c>
       <c r="E292" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F292" t="s">
         <v>446</v>
@@ -12529,7 +12520,7 @@
         <v>32</v>
       </c>
       <c r="H292" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -12546,7 +12537,7 @@
         <v>693</v>
       </c>
       <c r="E293" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F293" t="s">
         <v>446</v>
@@ -12555,7 +12546,7 @@
         <v>268</v>
       </c>
       <c r="H293" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -12572,7 +12563,7 @@
         <v>694</v>
       </c>
       <c r="E294" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F294" t="s">
         <v>446</v>
@@ -12581,7 +12572,7 @@
         <v>269</v>
       </c>
       <c r="H294" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -12598,7 +12589,7 @@
         <v>695</v>
       </c>
       <c r="E295" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F295" t="s">
         <v>446</v>
@@ -12607,7 +12598,7 @@
         <v>270</v>
       </c>
       <c r="H295" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -12624,7 +12615,7 @@
         <v>558</v>
       </c>
       <c r="E296" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F296" t="s">
         <v>446</v>
@@ -12633,7 +12624,7 @@
         <v>65</v>
       </c>
       <c r="H296" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -12650,7 +12641,7 @@
         <v>672</v>
       </c>
       <c r="E297" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F297" t="s">
         <v>446</v>
@@ -12659,7 +12650,7 @@
         <v>15</v>
       </c>
       <c r="H297" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -12676,7 +12667,7 @@
         <v>696</v>
       </c>
       <c r="E298" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F298" t="s">
         <v>446</v>
@@ -12685,7 +12676,7 @@
         <v>271</v>
       </c>
       <c r="H298" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -12702,7 +12693,7 @@
         <v>510</v>
       </c>
       <c r="E299" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F299" t="s">
         <v>446</v>
@@ -12711,7 +12702,7 @@
         <v>272</v>
       </c>
       <c r="H299" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -12728,7 +12719,7 @@
         <v>697</v>
       </c>
       <c r="E300" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F300" t="s">
         <v>446</v>
@@ -12737,7 +12728,7 @@
         <v>232</v>
       </c>
       <c r="H300" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -12754,7 +12745,7 @@
         <v>698</v>
       </c>
       <c r="E301" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F301" t="s">
         <v>446</v>
@@ -12763,7 +12754,7 @@
         <v>273</v>
       </c>
       <c r="H301" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -12780,7 +12771,7 @@
         <v>685</v>
       </c>
       <c r="E302" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F302" t="s">
         <v>446</v>
@@ -12789,7 +12780,7 @@
         <v>274</v>
       </c>
       <c r="H302" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -12806,7 +12797,7 @@
         <v>699</v>
       </c>
       <c r="E303" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F303" t="s">
         <v>446</v>
@@ -12815,7 +12806,7 @@
         <v>275</v>
       </c>
       <c r="H303" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -12832,7 +12823,7 @@
         <v>700</v>
       </c>
       <c r="E304" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F304" t="s">
         <v>446</v>
@@ -12841,7 +12832,7 @@
         <v>276</v>
       </c>
       <c r="H304" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -12858,7 +12849,7 @@
         <v>565</v>
       </c>
       <c r="E305" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F305" t="s">
         <v>446</v>
@@ -12867,7 +12858,7 @@
         <v>163</v>
       </c>
       <c r="H305" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -12884,7 +12875,7 @@
         <v>701</v>
       </c>
       <c r="E306" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F306" t="s">
         <v>446</v>
@@ -12893,7 +12884,7 @@
         <v>277</v>
       </c>
       <c r="H306" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -12910,7 +12901,7 @@
         <v>702</v>
       </c>
       <c r="E307" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F307" t="s">
         <v>446</v>
@@ -12919,7 +12910,7 @@
         <v>278</v>
       </c>
       <c r="H307" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -12936,7 +12927,7 @@
         <v>685</v>
       </c>
       <c r="E308" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F308" t="s">
         <v>446</v>
@@ -12945,7 +12936,7 @@
         <v>107</v>
       </c>
       <c r="H308" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -12962,7 +12953,7 @@
         <v>696</v>
       </c>
       <c r="E309" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F309" t="s">
         <v>446</v>
@@ -12971,7 +12962,7 @@
         <v>279</v>
       </c>
       <c r="H309" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -12988,7 +12979,7 @@
         <v>556</v>
       </c>
       <c r="E310" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F310" t="s">
         <v>446</v>
@@ -12997,7 +12988,7 @@
         <v>65</v>
       </c>
       <c r="H310" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13014,7 +13005,7 @@
         <v>703</v>
       </c>
       <c r="E311" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F311" t="s">
         <v>446</v>
@@ -13023,7 +13014,7 @@
         <v>280</v>
       </c>
       <c r="H311" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13040,7 +13031,7 @@
         <v>704</v>
       </c>
       <c r="E312" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F312" t="s">
         <v>446</v>
@@ -13049,7 +13040,7 @@
         <v>281</v>
       </c>
       <c r="H312" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13066,7 +13057,7 @@
         <v>559</v>
       </c>
       <c r="E313" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F313" t="s">
         <v>446</v>
@@ -13075,7 +13066,7 @@
         <v>282</v>
       </c>
       <c r="H313" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13092,7 +13083,7 @@
         <v>705</v>
       </c>
       <c r="E314" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F314" t="s">
         <v>446</v>
@@ -13101,7 +13092,7 @@
         <v>283</v>
       </c>
       <c r="H314" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13118,7 +13109,7 @@
         <v>706</v>
       </c>
       <c r="E315" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F315" t="s">
         <v>446</v>
@@ -13127,7 +13118,7 @@
         <v>284</v>
       </c>
       <c r="H315" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13144,7 +13135,7 @@
         <v>707</v>
       </c>
       <c r="E316" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F316" t="s">
         <v>446</v>
@@ -13153,7 +13144,7 @@
         <v>285</v>
       </c>
       <c r="H316" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13170,7 +13161,7 @@
         <v>505</v>
       </c>
       <c r="E317" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F317" t="s">
         <v>446</v>
@@ -13179,7 +13170,7 @@
         <v>286</v>
       </c>
       <c r="H317" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13196,7 +13187,7 @@
         <v>650</v>
       </c>
       <c r="E318" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F318" t="s">
         <v>446</v>
@@ -13205,7 +13196,7 @@
         <v>287</v>
       </c>
       <c r="H318" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -13222,7 +13213,7 @@
         <v>507</v>
       </c>
       <c r="E319" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F319" t="s">
         <v>446</v>
@@ -13231,7 +13222,7 @@
         <v>288</v>
       </c>
       <c r="H319" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -13248,7 +13239,7 @@
         <v>708</v>
       </c>
       <c r="E320" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F320" t="s">
         <v>446</v>
@@ -13257,7 +13248,7 @@
         <v>289</v>
       </c>
       <c r="H320" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -13274,7 +13265,7 @@
         <v>515</v>
       </c>
       <c r="E321" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F321" t="s">
         <v>446</v>
@@ -13283,7 +13274,7 @@
         <v>290</v>
       </c>
       <c r="H321" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -13300,7 +13291,7 @@
         <v>652</v>
       </c>
       <c r="E322" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F322" t="s">
         <v>446</v>
@@ -13309,7 +13300,7 @@
         <v>291</v>
       </c>
       <c r="H322" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -13326,7 +13317,7 @@
         <v>519</v>
       </c>
       <c r="E323" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F323" t="s">
         <v>446</v>
@@ -13335,7 +13326,7 @@
         <v>292</v>
       </c>
       <c r="H323" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -13352,7 +13343,7 @@
         <v>504</v>
       </c>
       <c r="E324" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F324" t="s">
         <v>446</v>
@@ -13361,7 +13352,7 @@
         <v>293</v>
       </c>
       <c r="H324" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -13378,7 +13369,7 @@
         <v>571</v>
       </c>
       <c r="E325" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F325" t="s">
         <v>446</v>
@@ -13387,7 +13378,7 @@
         <v>294</v>
       </c>
       <c r="H325" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -13404,7 +13395,7 @@
         <v>709</v>
       </c>
       <c r="E326" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F326" t="s">
         <v>446</v>
@@ -13413,7 +13404,7 @@
         <v>295</v>
       </c>
       <c r="H326" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -13430,7 +13421,7 @@
         <v>628</v>
       </c>
       <c r="E327" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F327" t="s">
         <v>446</v>
@@ -13439,7 +13430,7 @@
         <v>296</v>
       </c>
       <c r="H327" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -13456,7 +13447,7 @@
         <v>673</v>
       </c>
       <c r="E328" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F328" t="s">
         <v>446</v>
@@ -13465,7 +13456,7 @@
         <v>297</v>
       </c>
       <c r="H328" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -13482,7 +13473,7 @@
         <v>710</v>
       </c>
       <c r="E329" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F329" t="s">
         <v>446</v>
@@ -13491,7 +13482,7 @@
         <v>298</v>
       </c>
       <c r="H329" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -13508,7 +13499,7 @@
         <v>517</v>
       </c>
       <c r="E330" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F330" t="s">
         <v>446</v>
@@ -13517,7 +13508,7 @@
         <v>299</v>
       </c>
       <c r="H330" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -13534,7 +13525,7 @@
         <v>681</v>
       </c>
       <c r="E331" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F331" t="s">
         <v>446</v>
@@ -13543,7 +13534,7 @@
         <v>300</v>
       </c>
       <c r="H331" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -13560,7 +13551,7 @@
         <v>711</v>
       </c>
       <c r="E332" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F332" t="s">
         <v>446</v>
@@ -13569,7 +13560,7 @@
         <v>301</v>
       </c>
       <c r="H332" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -13586,7 +13577,7 @@
         <v>594</v>
       </c>
       <c r="E333" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F333" t="s">
         <v>446</v>
@@ -13595,7 +13586,7 @@
         <v>302</v>
       </c>
       <c r="H333" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -13612,7 +13603,7 @@
         <v>712</v>
       </c>
       <c r="E334" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F334" t="s">
         <v>446</v>
@@ -13621,7 +13612,7 @@
         <v>303</v>
       </c>
       <c r="H334" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -13638,7 +13629,7 @@
         <v>713</v>
       </c>
       <c r="E335" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F335" t="s">
         <v>446</v>
@@ -13647,7 +13638,7 @@
         <v>304</v>
       </c>
       <c r="H335" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -13664,7 +13655,7 @@
         <v>19</v>
       </c>
       <c r="E336" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F336" t="s">
         <v>446</v>
@@ -13673,7 +13664,7 @@
         <v>305</v>
       </c>
       <c r="H336" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -13690,7 +13681,7 @@
         <v>629</v>
       </c>
       <c r="E337" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F337" t="s">
         <v>446</v>
@@ -13699,7 +13690,7 @@
         <v>306</v>
       </c>
       <c r="H337" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -13716,7 +13707,7 @@
         <v>701</v>
       </c>
       <c r="E338" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F338" t="s">
         <v>446</v>
@@ -13725,7 +13716,7 @@
         <v>307</v>
       </c>
       <c r="H338" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -13742,7 +13733,7 @@
         <v>714</v>
       </c>
       <c r="E339" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F339" t="s">
         <v>446</v>
@@ -13751,7 +13742,7 @@
         <v>308</v>
       </c>
       <c r="H339" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -13768,16 +13759,16 @@
         <v>649</v>
       </c>
       <c r="E340" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F340" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G340" t="s">
         <v>309</v>
       </c>
       <c r="H340" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -13794,7 +13785,7 @@
         <v>554</v>
       </c>
       <c r="E341" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F341" t="s">
         <v>446</v>
@@ -13803,7 +13794,7 @@
         <v>310</v>
       </c>
       <c r="H341" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -13820,7 +13811,7 @@
         <v>19</v>
       </c>
       <c r="E342" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F342" t="s">
         <v>446</v>
@@ -13829,7 +13820,7 @@
         <v>311</v>
       </c>
       <c r="H342" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -13846,7 +13837,7 @@
         <v>538</v>
       </c>
       <c r="E343" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F343" t="s">
         <v>446</v>
@@ -13855,7 +13846,7 @@
         <v>312</v>
       </c>
       <c r="H343" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -13872,7 +13863,7 @@
         <v>567</v>
       </c>
       <c r="E344" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F344" t="s">
         <v>446</v>
@@ -13881,7 +13872,7 @@
         <v>313</v>
       </c>
       <c r="H344" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -13898,7 +13889,7 @@
         <v>705</v>
       </c>
       <c r="E345" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F345" t="s">
         <v>446</v>
@@ -13907,7 +13898,7 @@
         <v>314</v>
       </c>
       <c r="H345" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -13924,7 +13915,7 @@
         <v>715</v>
       </c>
       <c r="E346" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F346" t="s">
         <v>446</v>
@@ -13933,7 +13924,7 @@
         <v>315</v>
       </c>
       <c r="H346" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -13950,7 +13941,7 @@
         <v>692</v>
       </c>
       <c r="E347" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F347" t="s">
         <v>446</v>
@@ -13959,7 +13950,7 @@
         <v>316</v>
       </c>
       <c r="H347" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -13985,7 +13976,7 @@
         <v>317</v>
       </c>
       <c r="H348" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14002,7 +13993,7 @@
         <v>717</v>
       </c>
       <c r="E349" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F349" t="s">
         <v>446</v>
@@ -14011,7 +14002,7 @@
         <v>318</v>
       </c>
       <c r="H349" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14028,7 +14019,7 @@
         <v>531</v>
       </c>
       <c r="E350" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F350" t="s">
         <v>446</v>
@@ -14037,7 +14028,7 @@
         <v>319</v>
       </c>
       <c r="H350" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14054,7 +14045,7 @@
         <v>19</v>
       </c>
       <c r="E351" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F351" t="s">
         <v>446</v>
@@ -14063,7 +14054,7 @@
         <v>320</v>
       </c>
       <c r="H351" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14080,7 +14071,7 @@
         <v>673</v>
       </c>
       <c r="E352" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F352" t="s">
         <v>446</v>
@@ -14089,7 +14080,7 @@
         <v>321</v>
       </c>
       <c r="H352" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14106,7 +14097,7 @@
         <v>718</v>
       </c>
       <c r="E353" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F353" t="s">
         <v>446</v>
@@ -14115,7 +14106,7 @@
         <v>322</v>
       </c>
       <c r="H353" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14132,7 +14123,7 @@
         <v>579</v>
       </c>
       <c r="E354" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F354" t="s">
         <v>446</v>
@@ -14141,7 +14132,7 @@
         <v>323</v>
       </c>
       <c r="H354" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14158,7 +14149,7 @@
         <v>658</v>
       </c>
       <c r="E355" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F355" t="s">
         <v>446</v>
@@ -14167,7 +14158,7 @@
         <v>322</v>
       </c>
       <c r="H355" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14184,7 +14175,7 @@
         <v>719</v>
       </c>
       <c r="E356" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F356" t="s">
         <v>446</v>
@@ -14193,7 +14184,7 @@
         <v>324</v>
       </c>
       <c r="H356" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14210,7 +14201,7 @@
         <v>711</v>
       </c>
       <c r="E357" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F357" t="s">
         <v>446</v>
@@ -14219,7 +14210,7 @@
         <v>325</v>
       </c>
       <c r="H357" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -14236,7 +14227,7 @@
         <v>720</v>
       </c>
       <c r="E358" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F358" t="s">
         <v>446</v>
@@ -14245,7 +14236,7 @@
         <v>326</v>
       </c>
       <c r="H358" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -14262,7 +14253,7 @@
         <v>19</v>
       </c>
       <c r="E359" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F359" t="s">
         <v>446</v>
@@ -14271,7 +14262,7 @@
         <v>327</v>
       </c>
       <c r="H359" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -14288,7 +14279,7 @@
         <v>721</v>
       </c>
       <c r="E360" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F360" t="s">
         <v>446</v>
@@ -14297,7 +14288,7 @@
         <v>328</v>
       </c>
       <c r="H360" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -14314,7 +14305,7 @@
         <v>687</v>
       </c>
       <c r="E361" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F361" t="s">
         <v>446</v>
@@ -14323,7 +14314,7 @@
         <v>329</v>
       </c>
       <c r="H361" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -14340,7 +14331,7 @@
         <v>673</v>
       </c>
       <c r="E362" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F362" t="s">
         <v>446</v>
@@ -14349,7 +14340,7 @@
         <v>330</v>
       </c>
       <c r="H362" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -14366,7 +14357,7 @@
         <v>722</v>
       </c>
       <c r="E363" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F363" t="s">
         <v>446</v>
@@ -14375,7 +14366,7 @@
         <v>331</v>
       </c>
       <c r="H363" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -14392,7 +14383,7 @@
         <v>598</v>
       </c>
       <c r="E364" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F364" t="s">
         <v>446</v>
@@ -14401,7 +14392,7 @@
         <v>332</v>
       </c>
       <c r="H364" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -14418,7 +14409,7 @@
         <v>723</v>
       </c>
       <c r="E365" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F365" t="s">
         <v>446</v>
@@ -14427,7 +14418,7 @@
         <v>333</v>
       </c>
       <c r="H365" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -14444,7 +14435,7 @@
         <v>687</v>
       </c>
       <c r="E366" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F366" t="s">
         <v>446</v>
@@ -14453,7 +14444,7 @@
         <v>329</v>
       </c>
       <c r="H366" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -14470,7 +14461,7 @@
         <v>596</v>
       </c>
       <c r="E367" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F367" t="s">
         <v>446</v>
@@ -14479,7 +14470,7 @@
         <v>334</v>
       </c>
       <c r="H367" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -14496,7 +14487,7 @@
         <v>709</v>
       </c>
       <c r="E368" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F368" t="s">
         <v>446</v>
@@ -14505,7 +14496,7 @@
         <v>335</v>
       </c>
       <c r="H368" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -14522,7 +14513,7 @@
         <v>19</v>
       </c>
       <c r="E369" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F369" t="s">
         <v>446</v>
@@ -14531,7 +14522,7 @@
         <v>336</v>
       </c>
       <c r="H369" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -14548,7 +14539,7 @@
         <v>539</v>
       </c>
       <c r="E370" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F370" t="s">
         <v>446</v>
@@ -14557,7 +14548,7 @@
         <v>337</v>
       </c>
       <c r="H370" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -14574,7 +14565,7 @@
         <v>724</v>
       </c>
       <c r="E371" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F371" t="s">
         <v>446</v>
@@ -14583,7 +14574,7 @@
         <v>338</v>
       </c>
       <c r="H371" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -14600,16 +14591,16 @@
         <v>725</v>
       </c>
       <c r="E372" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F372" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G372" t="s">
         <v>339</v>
       </c>
       <c r="H372" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -14626,7 +14617,7 @@
         <v>726</v>
       </c>
       <c r="E373" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F373" t="s">
         <v>446</v>
@@ -14635,7 +14626,7 @@
         <v>340</v>
       </c>
       <c r="H373" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -14652,7 +14643,7 @@
         <v>727</v>
       </c>
       <c r="E374" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F374" t="s">
         <v>446</v>
@@ -14661,7 +14652,7 @@
         <v>341</v>
       </c>
       <c r="H374" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -14678,7 +14669,7 @@
         <v>728</v>
       </c>
       <c r="E375" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F375" t="s">
         <v>446</v>
@@ -14687,7 +14678,7 @@
         <v>109</v>
       </c>
       <c r="H375" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -14704,7 +14695,7 @@
         <v>566</v>
       </c>
       <c r="E376" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F376" t="s">
         <v>446</v>
@@ -14713,7 +14704,7 @@
         <v>342</v>
       </c>
       <c r="H376" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -14730,7 +14721,7 @@
         <v>729</v>
       </c>
       <c r="E377" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F377" t="s">
         <v>446</v>
@@ -14739,7 +14730,7 @@
         <v>163</v>
       </c>
       <c r="H377" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -14756,7 +14747,7 @@
         <v>730</v>
       </c>
       <c r="E378" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F378" t="s">
         <v>446</v>
@@ -14765,7 +14756,7 @@
         <v>343</v>
       </c>
       <c r="H378" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -14782,7 +14773,7 @@
         <v>19</v>
       </c>
       <c r="E379" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F379" t="s">
         <v>446</v>
@@ -14791,7 +14782,7 @@
         <v>344</v>
       </c>
       <c r="H379" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -14808,7 +14799,7 @@
         <v>731</v>
       </c>
       <c r="E380" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F380" t="s">
         <v>446</v>
@@ -14817,7 +14808,7 @@
         <v>345</v>
       </c>
       <c r="H380" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -14834,7 +14825,7 @@
         <v>732</v>
       </c>
       <c r="E381" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F381" t="s">
         <v>446</v>
@@ -14843,7 +14834,7 @@
         <v>346</v>
       </c>
       <c r="H381" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -14860,7 +14851,7 @@
         <v>733</v>
       </c>
       <c r="E382" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F382" t="s">
         <v>446</v>
@@ -14869,7 +14860,7 @@
         <v>347</v>
       </c>
       <c r="H382" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -14886,7 +14877,7 @@
         <v>538</v>
       </c>
       <c r="E383" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F383" t="s">
         <v>446</v>
@@ -14895,7 +14886,7 @@
         <v>348</v>
       </c>
       <c r="H383" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -14912,7 +14903,7 @@
         <v>673</v>
       </c>
       <c r="E384" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F384" t="s">
         <v>446</v>
@@ -14921,7 +14912,7 @@
         <v>349</v>
       </c>
       <c r="H384" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -14938,16 +14929,16 @@
         <v>734</v>
       </c>
       <c r="E385" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F385" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G385" t="s">
         <v>350</v>
       </c>
       <c r="H385" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -14964,7 +14955,7 @@
         <v>735</v>
       </c>
       <c r="E386" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F386" t="s">
         <v>446</v>
@@ -14973,7 +14964,7 @@
         <v>351</v>
       </c>
       <c r="H386" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -14990,7 +14981,7 @@
         <v>736</v>
       </c>
       <c r="E387" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F387" t="s">
         <v>446</v>
@@ -14999,7 +14990,7 @@
         <v>352</v>
       </c>
       <c r="H387" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15016,7 +15007,7 @@
         <v>737</v>
       </c>
       <c r="E388" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F388" t="s">
         <v>446</v>
@@ -15025,7 +15016,7 @@
         <v>353</v>
       </c>
       <c r="H388" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15042,7 +15033,7 @@
         <v>654</v>
       </c>
       <c r="E389" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F389" t="s">
         <v>446</v>
@@ -15051,7 +15042,7 @@
         <v>354</v>
       </c>
       <c r="H389" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15068,7 +15059,7 @@
         <v>738</v>
       </c>
       <c r="E390" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F390" t="s">
         <v>446</v>
@@ -15077,7 +15068,7 @@
         <v>355</v>
       </c>
       <c r="H390" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15094,7 +15085,7 @@
         <v>569</v>
       </c>
       <c r="E391" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F391" t="s">
         <v>446</v>
@@ -15103,7 +15094,7 @@
         <v>236</v>
       </c>
       <c r="H391" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15120,7 +15111,7 @@
         <v>569</v>
       </c>
       <c r="E392" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F392" t="s">
         <v>446</v>
@@ -15129,7 +15120,7 @@
         <v>356</v>
       </c>
       <c r="H392" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15146,7 +15137,7 @@
         <v>739</v>
       </c>
       <c r="E393" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F393" t="s">
         <v>446</v>
@@ -15155,7 +15146,7 @@
         <v>357</v>
       </c>
       <c r="H393" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15172,7 +15163,7 @@
         <v>694</v>
       </c>
       <c r="E394" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F394" t="s">
         <v>446</v>
@@ -15181,7 +15172,7 @@
         <v>163</v>
       </c>
       <c r="H394" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15198,7 +15189,7 @@
         <v>740</v>
       </c>
       <c r="E395" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F395" t="s">
         <v>446</v>
@@ -15207,7 +15198,7 @@
         <v>32</v>
       </c>
       <c r="H395" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -15224,7 +15215,7 @@
         <v>741</v>
       </c>
       <c r="E396" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F396" t="s">
         <v>446</v>
@@ -15233,7 +15224,7 @@
         <v>316</v>
       </c>
       <c r="H396" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -15250,7 +15241,7 @@
         <v>742</v>
       </c>
       <c r="E397" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F397" t="s">
         <v>446</v>
@@ -15259,7 +15250,7 @@
         <v>358</v>
       </c>
       <c r="H397" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -15276,7 +15267,7 @@
         <v>603</v>
       </c>
       <c r="E398" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F398" t="s">
         <v>446</v>
@@ -15285,7 +15276,7 @@
         <v>359</v>
       </c>
       <c r="H398" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -15302,7 +15293,7 @@
         <v>19</v>
       </c>
       <c r="E399" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F399" t="s">
         <v>446</v>
@@ -15311,7 +15302,7 @@
         <v>81</v>
       </c>
       <c r="H399" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -15328,7 +15319,7 @@
         <v>19</v>
       </c>
       <c r="E400" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F400" t="s">
         <v>446</v>
@@ -15337,7 +15328,7 @@
         <v>360</v>
       </c>
       <c r="H400" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -15354,7 +15345,7 @@
         <v>743</v>
       </c>
       <c r="E401" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F401" t="s">
         <v>446</v>
@@ -15363,7 +15354,7 @@
         <v>361</v>
       </c>
       <c r="H401" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -15380,7 +15371,7 @@
         <v>744</v>
       </c>
       <c r="E402" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F402" t="s">
         <v>446</v>
@@ -15389,7 +15380,7 @@
         <v>362</v>
       </c>
       <c r="H402" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -15406,7 +15397,7 @@
         <v>745</v>
       </c>
       <c r="E403" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F403" t="s">
         <v>446</v>
@@ -15415,7 +15406,7 @@
         <v>363</v>
       </c>
       <c r="H403" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -15432,7 +15423,7 @@
         <v>746</v>
       </c>
       <c r="E404" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F404" t="s">
         <v>446</v>
@@ -15441,7 +15432,7 @@
         <v>364</v>
       </c>
       <c r="H404" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -15458,7 +15449,7 @@
         <v>747</v>
       </c>
       <c r="E405" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F405" t="s">
         <v>446</v>
@@ -15467,7 +15458,7 @@
         <v>65</v>
       </c>
       <c r="H405" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -15484,7 +15475,7 @@
         <v>19</v>
       </c>
       <c r="E406" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F406" t="s">
         <v>446</v>
@@ -15493,7 +15484,7 @@
         <v>365</v>
       </c>
       <c r="H406" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -15510,16 +15501,16 @@
         <v>19</v>
       </c>
       <c r="E407" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F407" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G407" t="s">
         <v>366</v>
       </c>
       <c r="H407" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -15545,7 +15536,7 @@
         <v>367</v>
       </c>
       <c r="H408" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -15562,7 +15553,7 @@
         <v>749</v>
       </c>
       <c r="E409" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F409" t="s">
         <v>446</v>
@@ -15571,7 +15562,7 @@
         <v>368</v>
       </c>
       <c r="H409" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -15588,7 +15579,7 @@
         <v>734</v>
       </c>
       <c r="E410" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F410" t="s">
         <v>446</v>
@@ -15597,7 +15588,7 @@
         <v>369</v>
       </c>
       <c r="H410" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -15614,7 +15605,7 @@
         <v>738</v>
       </c>
       <c r="E411" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F411" t="s">
         <v>446</v>
@@ -15623,7 +15614,7 @@
         <v>370</v>
       </c>
       <c r="H411" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -15640,7 +15631,7 @@
         <v>19</v>
       </c>
       <c r="E412" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F412" t="s">
         <v>446</v>
@@ -15649,7 +15640,7 @@
         <v>371</v>
       </c>
       <c r="H412" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -15666,7 +15657,7 @@
         <v>525</v>
       </c>
       <c r="E413" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F413" t="s">
         <v>446</v>
@@ -15675,7 +15666,7 @@
         <v>372</v>
       </c>
       <c r="H413" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -15692,7 +15683,7 @@
         <v>629</v>
       </c>
       <c r="E414" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F414" t="s">
         <v>446</v>
@@ -15701,7 +15692,7 @@
         <v>373</v>
       </c>
       <c r="H414" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -15718,7 +15709,7 @@
         <v>516</v>
       </c>
       <c r="E415" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F415" t="s">
         <v>446</v>
@@ -15727,7 +15718,7 @@
         <v>374</v>
       </c>
       <c r="H415" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -15744,7 +15735,7 @@
         <v>750</v>
       </c>
       <c r="E416" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F416" t="s">
         <v>446</v>
@@ -15753,7 +15744,7 @@
         <v>375</v>
       </c>
       <c r="H416" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -15770,7 +15761,7 @@
         <v>737</v>
       </c>
       <c r="E417" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F417" t="s">
         <v>446</v>
@@ -15779,7 +15770,7 @@
         <v>376</v>
       </c>
       <c r="H417" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -15796,7 +15787,7 @@
         <v>623</v>
       </c>
       <c r="E418" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F418" t="s">
         <v>446</v>
@@ -15805,7 +15796,7 @@
         <v>377</v>
       </c>
       <c r="H418" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -15822,7 +15813,7 @@
         <v>751</v>
       </c>
       <c r="E419" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F419" t="s">
         <v>446</v>
@@ -15831,7 +15822,7 @@
         <v>278</v>
       </c>
       <c r="H419" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -15848,16 +15839,16 @@
         <v>752</v>
       </c>
       <c r="E420" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F420" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G420" t="s">
         <v>378</v>
       </c>
       <c r="H420" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -15874,7 +15865,7 @@
         <v>753</v>
       </c>
       <c r="E421" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F421" t="s">
         <v>446</v>
@@ -15883,7 +15874,7 @@
         <v>163</v>
       </c>
       <c r="H421" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -15900,7 +15891,7 @@
         <v>19</v>
       </c>
       <c r="E422" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F422" t="s">
         <v>446</v>
@@ -15909,7 +15900,7 @@
         <v>379</v>
       </c>
       <c r="H422" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -15926,7 +15917,7 @@
         <v>754</v>
       </c>
       <c r="E423" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F423" t="s">
         <v>446</v>
@@ -15935,7 +15926,7 @@
         <v>380</v>
       </c>
       <c r="H423" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -15952,7 +15943,7 @@
         <v>755</v>
       </c>
       <c r="E424" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F424" t="s">
         <v>446</v>
@@ -15961,7 +15952,7 @@
         <v>381</v>
       </c>
       <c r="H424" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -15978,7 +15969,7 @@
         <v>697</v>
       </c>
       <c r="E425" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F425" t="s">
         <v>446</v>
@@ -15987,7 +15978,7 @@
         <v>382</v>
       </c>
       <c r="H425" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16004,7 +15995,7 @@
         <v>756</v>
       </c>
       <c r="E426" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F426" t="s">
         <v>446</v>
@@ -16013,7 +16004,7 @@
         <v>383</v>
       </c>
       <c r="H426" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16030,7 +16021,7 @@
         <v>598</v>
       </c>
       <c r="E427" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F427" t="s">
         <v>446</v>
@@ -16039,7 +16030,7 @@
         <v>384</v>
       </c>
       <c r="H427" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16056,7 +16047,7 @@
         <v>757</v>
       </c>
       <c r="E428" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F428" t="s">
         <v>446</v>
@@ -16065,7 +16056,7 @@
         <v>385</v>
       </c>
       <c r="H428" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16082,7 +16073,7 @@
         <v>758</v>
       </c>
       <c r="E429" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F429" t="s">
         <v>446</v>
@@ -16091,7 +16082,7 @@
         <v>386</v>
       </c>
       <c r="H429" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16108,7 +16099,7 @@
         <v>705</v>
       </c>
       <c r="E430" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F430" t="s">
         <v>446</v>
@@ -16117,7 +16108,7 @@
         <v>387</v>
       </c>
       <c r="H430" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16134,7 +16125,7 @@
         <v>713</v>
       </c>
       <c r="E431" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F431" t="s">
         <v>446</v>
@@ -16143,7 +16134,7 @@
         <v>388</v>
       </c>
       <c r="H431" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16160,7 +16151,7 @@
         <v>759</v>
       </c>
       <c r="E432" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F432" t="s">
         <v>446</v>
@@ -16169,7 +16160,7 @@
         <v>389</v>
       </c>
       <c r="H432" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16186,7 +16177,7 @@
         <v>760</v>
       </c>
       <c r="E433" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F433" t="s">
         <v>446</v>
@@ -16195,7 +16186,7 @@
         <v>390</v>
       </c>
       <c r="H433" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16212,7 +16203,7 @@
         <v>567</v>
       </c>
       <c r="E434" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F434" t="s">
         <v>446</v>
@@ -16221,7 +16212,7 @@
         <v>391</v>
       </c>
       <c r="H434" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -16238,7 +16229,7 @@
         <v>761</v>
       </c>
       <c r="E435" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F435" t="s">
         <v>446</v>
@@ -16247,7 +16238,7 @@
         <v>392</v>
       </c>
       <c r="H435" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -16264,7 +16255,7 @@
         <v>762</v>
       </c>
       <c r="E436" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F436" t="s">
         <v>446</v>
@@ -16273,7 +16264,7 @@
         <v>393</v>
       </c>
       <c r="H436" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -16290,7 +16281,7 @@
         <v>718</v>
       </c>
       <c r="E437" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F437" t="s">
         <v>446</v>
@@ -16299,7 +16290,7 @@
         <v>394</v>
       </c>
       <c r="H437" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -16316,7 +16307,7 @@
         <v>763</v>
       </c>
       <c r="E438" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F438" t="s">
         <v>446</v>
@@ -16325,7 +16316,7 @@
         <v>395</v>
       </c>
       <c r="H438" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -16351,7 +16342,7 @@
         <v>396</v>
       </c>
       <c r="H439" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -16377,7 +16368,7 @@
         <v>397</v>
       </c>
       <c r="H440" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -16394,7 +16385,7 @@
         <v>764</v>
       </c>
       <c r="E441" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F441" t="s">
         <v>446</v>
@@ -16403,7 +16394,7 @@
         <v>398</v>
       </c>
       <c r="H441" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -16420,7 +16411,7 @@
         <v>708</v>
       </c>
       <c r="E442" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F442" t="s">
         <v>446</v>
@@ -16429,7 +16420,7 @@
         <v>399</v>
       </c>
       <c r="H442" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -16446,7 +16437,7 @@
         <v>626</v>
       </c>
       <c r="E443" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F443" t="s">
         <v>446</v>
@@ -16455,7 +16446,7 @@
         <v>400</v>
       </c>
       <c r="H443" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -16481,7 +16472,7 @@
         <v>401</v>
       </c>
       <c r="H444" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -16498,7 +16489,7 @@
         <v>647</v>
       </c>
       <c r="E445" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F445" t="s">
         <v>446</v>
@@ -16507,7 +16498,7 @@
         <v>402</v>
       </c>
       <c r="H445" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -16524,7 +16515,7 @@
         <v>19</v>
       </c>
       <c r="E446" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F446" t="s">
         <v>446</v>
@@ -16533,7 +16524,7 @@
         <v>403</v>
       </c>
       <c r="H446" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -16559,7 +16550,7 @@
         <v>404</v>
       </c>
       <c r="H447" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -16585,7 +16576,7 @@
         <v>405</v>
       </c>
       <c r="H448" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -16602,16 +16593,16 @@
         <v>767</v>
       </c>
       <c r="E449" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F449" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G449" t="s">
         <v>406</v>
       </c>
       <c r="H449" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -16628,7 +16619,7 @@
         <v>768</v>
       </c>
       <c r="E450" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F450" t="s">
         <v>446</v>
@@ -16637,7 +16628,7 @@
         <v>407</v>
       </c>
       <c r="H450" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -16654,7 +16645,7 @@
         <v>769</v>
       </c>
       <c r="E451" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F451" t="s">
         <v>446</v>
@@ -16663,7 +16654,7 @@
         <v>408</v>
       </c>
       <c r="H451" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -16680,7 +16671,7 @@
         <v>528</v>
       </c>
       <c r="E452" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F452" t="s">
         <v>446</v>
@@ -16689,7 +16680,7 @@
         <v>159</v>
       </c>
       <c r="H452" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -16715,7 +16706,7 @@
         <v>409</v>
       </c>
       <c r="H453" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -16732,7 +16723,7 @@
         <v>771</v>
       </c>
       <c r="E454" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F454" t="s">
         <v>446</v>
@@ -16741,7 +16732,7 @@
         <v>410</v>
       </c>
       <c r="H454" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -16758,7 +16749,7 @@
         <v>606</v>
       </c>
       <c r="E455" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F455" t="s">
         <v>446</v>
@@ -16767,7 +16758,7 @@
         <v>411</v>
       </c>
       <c r="H455" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -16784,7 +16775,7 @@
         <v>772</v>
       </c>
       <c r="E456" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F456" t="s">
         <v>446</v>
@@ -16793,7 +16784,7 @@
         <v>412</v>
       </c>
       <c r="H456" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -16810,7 +16801,7 @@
         <v>19</v>
       </c>
       <c r="E457" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F457" t="s">
         <v>446</v>
@@ -16819,7 +16810,7 @@
         <v>413</v>
       </c>
       <c r="H457" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -16836,7 +16827,7 @@
         <v>19</v>
       </c>
       <c r="E458" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F458" t="s">
         <v>446</v>
@@ -16845,7 +16836,7 @@
         <v>414</v>
       </c>
       <c r="H458" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -16862,7 +16853,7 @@
         <v>773</v>
       </c>
       <c r="E459" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F459" t="s">
         <v>446</v>
@@ -16871,7 +16862,7 @@
         <v>415</v>
       </c>
       <c r="H459" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -16888,7 +16879,7 @@
         <v>774</v>
       </c>
       <c r="E460" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F460" t="s">
         <v>446</v>
@@ -16897,7 +16888,7 @@
         <v>416</v>
       </c>
       <c r="H460" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -16914,7 +16905,7 @@
         <v>618</v>
       </c>
       <c r="E461" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F461" t="s">
         <v>446</v>
@@ -16923,7 +16914,7 @@
         <v>417</v>
       </c>
       <c r="H461" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -16940,7 +16931,7 @@
         <v>19</v>
       </c>
       <c r="E462" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F462" t="s">
         <v>446</v>
@@ -16949,7 +16940,7 @@
         <v>418</v>
       </c>
       <c r="H462" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -16966,7 +16957,7 @@
         <v>775</v>
       </c>
       <c r="E463" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F463" t="s">
         <v>446</v>
@@ -16975,7 +16966,7 @@
         <v>316</v>
       </c>
       <c r="H463" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -16992,7 +16983,7 @@
         <v>776</v>
       </c>
       <c r="E464" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F464" t="s">
         <v>446</v>
@@ -17001,7 +16992,7 @@
         <v>419</v>
       </c>
       <c r="H464" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -17018,7 +17009,7 @@
         <v>777</v>
       </c>
       <c r="E465" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F465" t="s">
         <v>446</v>
@@ -17027,7 +17018,7 @@
         <v>420</v>
       </c>
       <c r="H465" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -17044,7 +17035,7 @@
         <v>581</v>
       </c>
       <c r="E466" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F466" t="s">
         <v>446</v>
@@ -17053,7 +17044,7 @@
         <v>421</v>
       </c>
       <c r="H466" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -17070,7 +17061,7 @@
         <v>778</v>
       </c>
       <c r="E467" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F467" t="s">
         <v>446</v>
@@ -17079,7 +17070,7 @@
         <v>422</v>
       </c>
       <c r="H467" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -17096,7 +17087,7 @@
         <v>571</v>
       </c>
       <c r="E468" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F468" t="s">
         <v>446</v>
@@ -17105,7 +17096,7 @@
         <v>423</v>
       </c>
       <c r="H468" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -17122,7 +17113,7 @@
         <v>19</v>
       </c>
       <c r="E469" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F469" t="s">
         <v>446</v>
@@ -17131,7 +17122,7 @@
         <v>424</v>
       </c>
       <c r="H469" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -17148,7 +17139,7 @@
         <v>779</v>
       </c>
       <c r="E470" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F470" t="s">
         <v>446</v>
@@ -17157,7 +17148,7 @@
         <v>425</v>
       </c>
       <c r="H470" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -17174,7 +17165,7 @@
         <v>780</v>
       </c>
       <c r="E471" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F471" t="s">
         <v>446</v>
@@ -17183,7 +17174,7 @@
         <v>426</v>
       </c>
       <c r="H471" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -17200,16 +17191,16 @@
         <v>781</v>
       </c>
       <c r="E472" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F472" t="s">
         <v>446</v>
       </c>
       <c r="G472" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="H472" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -17226,16 +17217,16 @@
         <v>781</v>
       </c>
       <c r="E473" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F473" t="s">
         <v>446</v>
       </c>
       <c r="G473" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="H473" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -17252,16 +17243,16 @@
         <v>19</v>
       </c>
       <c r="E474" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F474" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G474" t="s">
         <v>427</v>
       </c>
       <c r="H474" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -17278,7 +17269,7 @@
         <v>649</v>
       </c>
       <c r="E475" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F475" t="s">
         <v>446</v>
@@ -17287,7 +17278,7 @@
         <v>428</v>
       </c>
       <c r="H475" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -17304,16 +17295,16 @@
         <v>782</v>
       </c>
       <c r="E476" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F476" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G476" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="H476" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -17330,16 +17321,16 @@
         <v>783</v>
       </c>
       <c r="E477" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F477" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G477" t="s">
         <v>429</v>
       </c>
       <c r="H477" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -17356,7 +17347,7 @@
         <v>784</v>
       </c>
       <c r="E478" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F478" t="s">
         <v>446</v>
@@ -17365,7 +17356,7 @@
         <v>259</v>
       </c>
       <c r="H478" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -17382,7 +17373,7 @@
         <v>785</v>
       </c>
       <c r="E479" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F479" t="s">
         <v>446</v>
@@ -17391,7 +17382,7 @@
         <v>406</v>
       </c>
       <c r="H479" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -17408,7 +17399,7 @@
         <v>786</v>
       </c>
       <c r="E480" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F480" t="s">
         <v>446</v>
@@ -17417,7 +17408,7 @@
         <v>386</v>
       </c>
       <c r="H480" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -17434,7 +17425,7 @@
         <v>604</v>
       </c>
       <c r="E481" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F481" t="s">
         <v>446</v>
@@ -17443,7 +17434,7 @@
         <v>430</v>
       </c>
       <c r="H481" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -17460,7 +17451,7 @@
         <v>703</v>
       </c>
       <c r="E482" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F482" t="s">
         <v>446</v>
@@ -17469,7 +17460,7 @@
         <v>431</v>
       </c>
       <c r="H482" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -17486,16 +17477,16 @@
         <v>511</v>
       </c>
       <c r="E483" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F483" t="s">
         <v>446</v>
       </c>
       <c r="G483" t="s">
-        <v>432</v>
+        <v>1027</v>
       </c>
       <c r="H483" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -17512,7 +17503,7 @@
         <v>19</v>
       </c>
       <c r="E484" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F484" t="s">
         <v>446</v>
@@ -17521,7 +17512,7 @@
         <v>433</v>
       </c>
       <c r="H484" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -17538,7 +17529,7 @@
         <v>723</v>
       </c>
       <c r="E485" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F485" t="s">
         <v>446</v>
@@ -17547,7 +17538,7 @@
         <v>434</v>
       </c>
       <c r="H485" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -17564,7 +17555,7 @@
         <v>19</v>
       </c>
       <c r="E486" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F486" t="s">
         <v>446</v>
@@ -17573,7 +17564,7 @@
         <v>435</v>
       </c>
       <c r="H486" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -17590,7 +17581,7 @@
         <v>787</v>
       </c>
       <c r="E487" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F487" t="s">
         <v>446</v>
@@ -17599,7 +17590,7 @@
         <v>436</v>
       </c>
       <c r="H487" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -17616,7 +17607,7 @@
         <v>788</v>
       </c>
       <c r="E488" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F488" t="s">
         <v>446</v>
@@ -17625,7 +17616,7 @@
         <v>250</v>
       </c>
       <c r="H488" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -17642,7 +17633,7 @@
         <v>19</v>
       </c>
       <c r="E489" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F489" t="s">
         <v>446</v>
@@ -17651,7 +17642,7 @@
         <v>437</v>
       </c>
       <c r="H489" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -17668,7 +17659,7 @@
         <v>789</v>
       </c>
       <c r="E490" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F490" t="s">
         <v>446</v>
@@ -17677,7 +17668,7 @@
         <v>438</v>
       </c>
       <c r="H490" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -17694,7 +17685,7 @@
         <v>790</v>
       </c>
       <c r="E491" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F491" t="s">
         <v>446</v>
@@ -17703,7 +17694,7 @@
         <v>406</v>
       </c>
       <c r="H491" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -17720,7 +17711,7 @@
         <v>791</v>
       </c>
       <c r="E492" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F492" t="s">
         <v>446</v>
@@ -17729,7 +17720,7 @@
         <v>439</v>
       </c>
       <c r="H492" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -17746,7 +17737,7 @@
         <v>792</v>
       </c>
       <c r="E493" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F493" t="s">
         <v>446</v>
@@ -17755,7 +17746,7 @@
         <v>440</v>
       </c>
       <c r="H493" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -17772,7 +17763,7 @@
         <v>19</v>
       </c>
       <c r="E494" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F494" t="s">
         <v>446</v>
@@ -17781,7 +17772,7 @@
         <v>441</v>
       </c>
       <c r="H494" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -17798,7 +17789,7 @@
         <v>793</v>
       </c>
       <c r="E495" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F495" t="s">
         <v>446</v>
@@ -17807,7 +17798,7 @@
         <v>81</v>
       </c>
       <c r="H495" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -17824,16 +17815,16 @@
         <v>794</v>
       </c>
       <c r="E496" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F496" t="s">
         <v>1014</v>
-      </c>
-      <c r="F496" t="s">
-        <v>1016</v>
       </c>
       <c r="G496" t="s">
         <v>442</v>
       </c>
       <c r="H496" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -17850,7 +17841,7 @@
         <v>795</v>
       </c>
       <c r="E497" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F497" t="s">
         <v>446</v>
@@ -17859,7 +17850,7 @@
         <v>163</v>
       </c>
       <c r="H497" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -17876,16 +17867,16 @@
         <v>796</v>
       </c>
       <c r="E498" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F498" t="s">
         <v>446</v>
       </c>
       <c r="G498" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="H498" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -17902,7 +17893,7 @@
         <v>19</v>
       </c>
       <c r="E499" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F499" t="s">
         <v>446</v>
@@ -17911,7 +17902,7 @@
         <v>443</v>
       </c>
       <c r="H499" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -17928,7 +17919,7 @@
         <v>797</v>
       </c>
       <c r="E500" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F500" t="s">
         <v>446</v>
@@ -17937,7 +17928,7 @@
         <v>444</v>
       </c>
       <c r="H500" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -17954,7 +17945,7 @@
         <v>19</v>
       </c>
       <c r="E501" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F501" t="s">
         <v>446</v>
@@ -17963,7 +17954,7 @@
         <v>445</v>
       </c>
       <c r="H501" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
     </row>
   </sheetData>
